--- a/Hardware/BOM RF PCB.xlsx
+++ b/Hardware/BOM RF PCB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heinrichs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studium\Bachelor Arbeit\OpenSourceRIS\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAE710-3C1C-48FA-948D-EE293AF2DA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA2C5DE-9B5D-42E7-83FD-76FD9918DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -144,34 +141,37 @@
     <t>BOM for Open Source RIS - RF PCB</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>C001-256</t>
-  </si>
-  <si>
-    <t>LED001-256</t>
-  </si>
-  <si>
-    <t>R001-256</t>
-  </si>
-  <si>
-    <t>C257-288</t>
-  </si>
-  <si>
-    <t>IC001-256</t>
-  </si>
-  <si>
-    <t>IC257-288</t>
-  </si>
-  <si>
-    <t>R257-557</t>
-  </si>
-  <si>
-    <t>J3-4</t>
-  </si>
-  <si>
-    <t>J1-2</t>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>C257,C258,C259,C260,C261,C262,C263,C264,C265,C266,C267,C268,C269,C270,C271,C272,C273,C274,C275,C276,C277,C278,C279,C280,C281,C282,C283,C284,C285,C286,C287,C288</t>
+  </si>
+  <si>
+    <t>IC257,IC258,IC259,IC260,IC261,IC262,IC263,IC264,IC265,IC266,IC267,IC268,IC269,IC270,IC271,IC272,IC273,IC274,IC275,IC276,IC277,IC278,IC279,IC280,IC281,IC282,IC283,IC284,IC285,IC286,IC287,IC288</t>
+  </si>
+  <si>
+    <t>R257,R258,R259,R260,R261,R262,R263,R264,R265,R266,R267,R268,R269,R270,R271,R272,R273,R274,R275,R276,R277,R278,R279,R280,R281,R282,R283,R284,R285,R286,R287,R288,R289,R290,R291,R292,R293,R294,R295,R296,R297,R298,R299,R300,R301,R302,R303,R304,R305,R306,R307,R308,R309,R310,R311,R312,R313,R314,R315,R316,R317,R318,R319,R320,R321,R322,R323,R324,R325,R326,R327,R328,R329,R330,R331,R332,R333,R334,R335,R336,R337,R338,R339,R340,R341,R342,R343,R344,R345,R346,R347,R348,R349,R350,R351,R352,R353,R354,R355,R356,R357,R358,R359,R360,R361,R362,R363,R364,R365,R366,R367,R368,R369,R370,R371,R372,R373,R374,R375,R376,R377,R378,R379,R380,R381,R382,R383,R384,R385,R386,R387,R388,R389,R390,R391,R392,R393,R394,R395,R396,R397,R398,R399,R400,R401,R402,R403,R404,R405,R406,R407,R408,R409,R410,R411,R412,R413,R414,R415,R416,R417,R418,R419,R420,R421,R422,R423,R424,R425,R426,R427,R428,R429,R430,R431,R432,R433,R434,R435,R436,R437,R438,R439,R440,R441,R442,R443,R444,R445,R446,R447,R448,R449,R450,R451,R452,R453,R454,R455,R456,R457,R458,R459,R460,R461,R462,R463,R464,R465,R466,R467,R468,R469,R470,R471,R472,R473,R474,R475,R476,R477,R478,R479,R480,R481,R482,R483,R484,R485,R486,R487,R488,R489,R490,R491,R492,R493,R494,R495,R496,R497,R498,R499,R500,R501,R502,R503,R504,R505,R506,R507,R508,R509,R510,R511,R512,R513,R514,R515,R516,R517,R518,R519,R520,R521,R522,R523,R524,R525,R526,R527,R528,R529,R530,R531,R532,R533,R534,R535,R536,R537,R538,R539,R540,R541,R542,R543,R544,R545,R546,R547,R548,R549,R550,R551,R552,R553,R554,R555,R556,R557</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>J001,J002</t>
+  </si>
+  <si>
+    <t>J003,J004</t>
+  </si>
+  <si>
+    <t>C001,C002,C003,C004,C005,C006,C007,C008,C009,C010,C011,C012,C013,C014,C015,C016,C017,C018,C019,C020,C021,C022,C023,C024,C025,C026,C027,C028,C029,C030,C031,C032,C033,C034,C035,C036,C037,C038,C039,C040,C041,C042,C043,C044,C045,C046,C047,C048,C049,C050,C051,C052,C053,C054,C055,C056,C057,C058,C059,C060,C061,C062,C063,C064,C065,C066,C067,C068,C069,C070,C071,C072,C073,C074,C075,C076,C077,C078,C079,C080,C081,C082,C083,C084,C085,C086,C087,C088,C089,C090,C091,C092,C093,C094,C095,C096,C097,C098,C099,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,C129,C130,C131,C132,C133,C134,C135,C136,C137,C138,C139,C140,C141,C142,C143,C144,C145,C146,C147,C148,C149,C150,C151,C152,C153,C154,C155,C156,C157,C158,C159,C160,C161,C162,C163,C164,C165,C166,C167,C168,C169,C170,C171,C172,C173,C174,C175,C176,C177,C178,C179,C180,C181,C182,C183,C184,C185,C186,C187,C188,C189,C190,C191,C192,C193,C194,C195,C196,C197,C198,C199,C200,C201,C202,C203,C204,C205,C206,C207,C208,C209,C210,C211,C212,C213,C214,C215,C216,C217,C218,C219,C220,C221,C222,C223,C224,C225,C226,C227,C228,C229,C230,C231,C232,C233,C234,C235,C236,C237,C238,C239,C240,C241,C242,C243,C244,C245,C246,C247,C248,C249,C250,C251,C252,C253,C254,C255,C256</t>
+  </si>
+  <si>
+    <t>LED001,LED002,LED003,LED004,LED005,LED006,LED007,LED008,LED009,LED010,LED011,LED012,LED013,LED014,LED015,LED016,LED017,LED018,LED019,LED020,LED021,LED022,LED023,LED024,LED025,LED026,LED027,LED028,LED029,LED030,LED031,LED032,LED033,LED034,LED035,LED036,LED037,LED038,LED039,LED040,LED041,LED042,LED043,LED044,LED045,LED046,LED047,LED048,LED049,LED050,LED051,LED052,LED053,LED054,LED055,LED056,LED057,LED058,LED059,LED060,LED061,LED062,LED063,LED064,LED065,LED066,LED067,LED068,LED069,LED070,LED071,LED072,LED073,LED074,LED075,LED076,LED077,LED078,LED079,LED080,LED081,LED082,LED083,LED084,LED085,LED086,LED087,LED088,LED089,LED090,LED091,LED092,LED093,LED094,LED095,LED096,LED097,LED098,LED099,LED100,LED101,LED102,LED103,LED104,LED105,LED106,LED107,LED108,LED109,LED110,LED111,LED112,LED113,LED114,LED115,LED116,LED117,LED118,LED119,LED120,LED121,LED122,LED123,LED124,LED125,LED126,LED127,LED128,LED129,LED130,LED131,LED132,LED133,LED134,LED135,LED136,LED137,LED138,LED139,LED140,LED141,LED142,LED143,LED144,LED145,LED146,LED147,LED148,LED149,LED150,LED151,LED152,LED153,LED154,LED155,LED156,LED157,LED158,LED159,LED160,LED161,LED162,LED163,LED164,LED165,LED166,LED167,LED168,LED169,LED170,LED171,LED172,LED173,LED174,LED175,LED176,LED177,LED178,LED179,LED180,LED181,LED182,LED183,LED184,LED185,LED186,LED187,LED188,LED189,LED190,LED191,LED192,LED193,LED194,LED195,LED196,LED197,LED198,LED199,LED200,LED201,LED202,LED203,LED204,LED205,LED206,LED207,LED208,LED209,LED210,LED211,LED212,LED213,LED214,LED215,LED216,LED217,LED218,LED219,LED220,LED221,LED222,LED223,LED224,LED225,LED226,LED227,LED228,LED229,LED230,LED231,LED232,LED233,LED234,LED235,LED236,LED237,LED238,LED239,LED240,LED241,LED242,LED243,LED244,LED245,LED246,LED247,LED248,LED249,LED250,LED251,LED252,LED253,LED254,LED255,LED256</t>
+  </si>
+  <si>
+    <t>R001,R002,R003,R004,R005,R006,R007,R008,R009,R010,R011,R012,R013,R014,R015,R016,R017,R018,R019,R020,R021,R022,R023,R024,R025,R026,R027,R028,R029,R030,R031,R032,R033,R034,R035,R036,R037,R038,R039,R040,R041,R042,R043,R044,R045,R046,R047,R048,R049,R050,R051,R052,R053,R054,R055,R056,R057,R058,R059,R060,R061,R062,R063,R064,R065,R066,R067,R068,R069,R070,R071,R072,R073,R074,R075,R076,R077,R078,R079,R080,R081,R082,R083,R084,R085,R086,R087,R088,R089,R090,R091,R092,R093,R094,R095,R096,R097,R098,R099,R100,R101,R102,R103,R104,R105,R106,R107,R108,R109,R110,R111,R112,R113,R114,R115,R116,R117,R118,R119,R120,R121,R122,R123,R124,R125,R126,R127,R128,R129,R130,R131,R132,R133,R134,R135,R136,R137,R138,R139,R140,R141,R142,R143,R144,R145,R146,R147,R148,R149,R150,R151,R152,R153,R154,R155,R156,R157,R158,R159,R160,R161,R162,R163,R164,R165,R166,R167,R168,R169,R170,R171,R172,R173,R174,R175,R176,R177,R178,R179,R180,R181,R182,R183,R184,R185,R186,R187,R188,R189,R190,R191,R192,R193,R194,R195,R196,R197,R198,R199,R200,R201,R202,R203,R204,R205,R206,R207,R208,R209,R210,R211,R212,R213,R214,R215,R216,R217,R218,R219,R220,R221,R222,R223,R224,R225,R226,R227,R228,R229,R230,R231,R232,R233,R234,R235,R236,R237,R238,R239,R240,R241,R242,R243,R244,R245,R246,R247,R248,R249,R250,R251,R252,R253,R254,R255,R256</t>
+  </si>
+  <si>
+    <t>IC001,IC002,IC003,IC004,IC005,IC006,IC007,IC008,IC009,IC010,IC011,IC012,IC013,IC014,IC015,IC016,IC017,IC018,IC019,IC020,IC021,IC022,IC023,IC024,IC025,IC026,IC027,IC028,IC029,IC030,IC031,IC032,IC033,IC034,IC035,IC036,IC037,IC038,IC039,IC040,IC041,IC042,IC043,IC044,IC045,IC046,IC047,IC048,IC049,IC050,IC051,IC052,IC053,IC054,IC055,IC056,IC057,IC058,IC059,IC060,IC061,IC062,IC063,IC064,IC065,IC066,IC067,IC068,IC069,IC070,IC071,IC072,IC073,IC074,IC075,IC076,IC077,IC078,IC079,IC080,IC081,IC082,IC083,IC084,IC085,IC086,IC087,IC088,IC089,IC090,IC091,IC092,IC093,IC094,IC095,IC096,IC097,IC098,IC099,IC100,IC101,IC102,IC103,IC104,IC105,IC106,IC107,IC108,IC109,IC110,IC111,IC112,IC113,IC114,IC115,IC116,IC117,IC118,IC119,IC120,IC121,IC122,IC123,IC124,IC125,IC126,IC127,IC128,IC129,IC130,IC131,IC132,IC133,IC134,IC135,IC136,IC137,IC138,IC139,IC140,IC141,IC142,IC143,IC144,IC145,IC146,IC147,IC148,IC149,IC150,IC151,IC152,IC153,IC154,IC155,IC156,IC157,IC158,IC159,IC160,IC161,IC162,IC163,IC164,IC165,IC166,IC167,IC168,IC169,IC170,IC171,IC172,IC173,IC174,IC175,IC176,IC177,IC178,IC179,IC180,IC181,IC182,IC183,IC184,IC185,IC186,IC187,IC188,IC189,IC190,IC191,IC192,IC193,IC194,IC195,IC196,IC197,IC198,IC199,IC200,IC201,IC202,IC203,IC204,IC205,IC206,IC207,IC208,IC209,IC210,IC211,IC212,IC213,IC214,IC215,IC216,IC217,IC218,IC219,IC220,IC221,IC222,IC223,IC224,IC225,IC226,IC227,IC228,IC229,IC230,IC231,IC232,IC233,IC234,IC235,IC236,IC237,IC238,IC239,IC240,IC241,IC242,IC243,IC244,IC245,IC246,IC247,IC248,IC249,IC250,IC251,IC252,IC253,IC254,IC255,IC256</t>
   </si>
 </sst>
 </file>
@@ -205,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,13 +243,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,25 +549,25 @@
     <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,276 +575,240 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>301</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <v>256</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>256</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>301</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>256</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6">
-        <v>256</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50"/>
@@ -920,12 +889,12 @@
       <c r="C68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A3:F12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <mergeCells count="1">
